--- a/biology/Zoologie/Jouet_pour_chien/Jouet_pour_chien.xlsx
+++ b/biology/Zoologie/Jouet_pour_chien/Jouet_pour_chien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jouet pour chien est un jouet conçu spécialement pour les chiens. Il en existe plusieurs variétés, os, jouet pour chiot, balles, outils de dressage, disques et frisbees, peluches, bâtons.
 Les chiots ont besoin de jouets qu'ils peuvent mâcher quand ils font leurs dents parce que leurs gencives et leur mâchoire deviennent très douloureuses. 
